--- a/database/case.xlsx
+++ b/database/case.xlsx
@@ -32,7 +32,7 @@
     <t>content</t>
   </si>
   <si>
-    <t>cover</t>
+    <t>photo</t>
   </si>
   <si>
     <t>__EMPTY</t>
@@ -410,7 +410,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
